--- a/KA_Data/Original_KA_Data/Lockage comparison spreadsheet.xlsx
+++ b/KA_Data/Original_KA_Data/Lockage comparison spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\Original_KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699F5DB1-AC8E-4F88-85EB-F9BECAE2ADC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0470AB31-93F5-41AE-A2C9-A9BDABC72742}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4131F1DD-B8DA-444D-9E84-BD2BFA193964}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Lock 13, Bath</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Lock</t>
   </si>
   <si>
-    <t>Ours</t>
-  </si>
-  <si>
     <t>Lock 14, Bradford on Avon</t>
   </si>
   <si>
@@ -72,13 +69,25 @@
     <t>Lock 96, Padworth Middle</t>
   </si>
   <si>
-    <t>2018 order</t>
-  </si>
-  <si>
-    <t>Our order</t>
-  </si>
-  <si>
     <t>https://canalrivertrust.org.uk/media/original/39733-annual-lockage-report-2018.pdf?v=9844f8</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Actuals</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
@@ -123,9 +132,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,216 +453,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2E8381-81A2-46F6-96C2-CA700555FC13}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>2016</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>2017</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>2018</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>2018</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2771</v>
+      </c>
+      <c r="C3">
+        <v>2745</v>
+      </c>
+      <c r="D3">
+        <v>2573</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2771</v>
-      </c>
-      <c r="C2">
-        <v>2745</v>
-      </c>
-      <c r="D2">
-        <v>2573</v>
-      </c>
-      <c r="E2">
+      <c r="B4">
+        <v>7949</v>
+      </c>
+      <c r="C4">
+        <v>6114</v>
+      </c>
+      <c r="D4">
+        <v>5942</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3786</v>
+      </c>
+      <c r="C5">
+        <v>3707</v>
+      </c>
+      <c r="D5">
+        <v>3389</v>
+      </c>
+      <c r="E5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B6">
+        <v>3792</v>
+      </c>
+      <c r="C6">
+        <v>3638</v>
+      </c>
+      <c r="D6">
+        <v>3121</v>
+      </c>
+      <c r="E6">
+        <v>42</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>7949</v>
-      </c>
-      <c r="C3">
-        <v>6114</v>
-      </c>
-      <c r="D3">
-        <v>5942</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1939</v>
+      </c>
+      <c r="C7">
+        <v>1932</v>
+      </c>
+      <c r="D7">
+        <v>2014</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>3786</v>
-      </c>
-      <c r="C4">
-        <v>3707</v>
-      </c>
-      <c r="D4">
-        <v>3389</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>3792</v>
-      </c>
-      <c r="C5">
-        <v>3638</v>
-      </c>
-      <c r="D5">
-        <v>3121</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1939</v>
-      </c>
-      <c r="C6">
-        <v>1932</v>
-      </c>
-      <c r="D6">
-        <v>2014</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+      <c r="B8">
         <v>2317</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>2112</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>2227</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>2174</v>
-      </c>
-      <c r="C8">
-        <v>1847</v>
-      </c>
-      <c r="D8">
-        <v>1742</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2174</v>
+      </c>
+      <c r="C9">
+        <v>1847</v>
+      </c>
+      <c r="D9">
+        <v>1742</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="B9">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>1918</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1905</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1813</v>
       </c>
-      <c r="E9">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="I10">
         <v>10</v>
       </c>
-      <c r="B10">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>2521</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>2626</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>2519</v>
       </c>
-      <c r="E10">
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="H11">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2100</v>
+      </c>
+      <c r="C12">
+        <v>2082</v>
+      </c>
+      <c r="D12">
+        <v>1950</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>2100</v>
-      </c>
-      <c r="C11">
-        <v>2082</v>
-      </c>
-      <c r="D11">
-        <v>1950</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" xr:uid="{531E93BF-5A24-4B1B-B931-168B08E6E7D2}"/>
+    <hyperlink ref="I16" r:id="rId1" xr:uid="{531E93BF-5A24-4B1B-B931-168B08E6E7D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KA_Data/Original_KA_Data/Lockage comparison spreadsheet.xlsx
+++ b/KA_Data/Original_KA_Data/Lockage comparison spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\Original_KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0470AB31-93F5-41AE-A2C9-A9BDABC72742}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B170EB31-9A47-43CF-817B-ADB0CFAEF7A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4131F1DD-B8DA-444D-9E84-BD2BFA193964}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/KA_Data/Original_KA_Data/Lockage comparison spreadsheet.xlsx
+++ b/KA_Data/Original_KA_Data/Lockage comparison spreadsheet.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\Original_KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B170EB31-9A47-43CF-817B-ADB0CFAEF7A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EC6C90-5393-40C3-9E1F-731754048D25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4131F1DD-B8DA-444D-9E84-BD2BFA193964}"/>
+    <workbookView xWindow="11472" yWindow="3744" windowWidth="11916" windowHeight="8964" xr2:uid="{4131F1DD-B8DA-444D-9E84-BD2BFA193964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -456,7 +456,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,11 +533,17 @@
       <c r="E3">
         <v>28</v>
       </c>
+      <c r="F3">
+        <v>1033</v>
+      </c>
       <c r="H3">
         <v>4</v>
       </c>
       <c r="I3">
         <v>3</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -556,11 +562,17 @@
       <c r="E4">
         <v>15</v>
       </c>
+      <c r="F4">
+        <v>1015</v>
+      </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
         <v>7</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -579,11 +591,17 @@
       <c r="E5">
         <v>42</v>
       </c>
+      <c r="F5">
+        <v>553</v>
+      </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
         <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -602,11 +620,17 @@
       <c r="E6">
         <v>42</v>
       </c>
+      <c r="F6">
+        <v>480</v>
+      </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="I6">
         <v>2</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -625,11 +649,17 @@
       <c r="E7">
         <v>26</v>
       </c>
+      <c r="F7">
+        <v>335</v>
+      </c>
       <c r="H7">
         <v>7</v>
       </c>
       <c r="I7">
         <v>4</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -648,11 +678,17 @@
       <c r="E8">
         <v>10</v>
       </c>
+      <c r="F8">
+        <v>305</v>
+      </c>
       <c r="H8">
         <v>6</v>
       </c>
       <c r="I8">
         <v>8</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -671,11 +707,17 @@
       <c r="E9">
         <v>10</v>
       </c>
+      <c r="F9">
+        <v>238</v>
+      </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
         <v>9</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -694,11 +736,17 @@
       <c r="E10">
         <v>4</v>
       </c>
+      <c r="F10">
+        <v>222</v>
+      </c>
       <c r="H10">
         <v>9</v>
       </c>
       <c r="I10">
         <v>10</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -717,10 +765,16 @@
       <c r="E11">
         <v>24</v>
       </c>
+      <c r="F11">
+        <v>406</v>
+      </c>
       <c r="H11">
         <v>5</v>
       </c>
       <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
         <v>5</v>
       </c>
     </row>
@@ -740,11 +794,17 @@
       <c r="E12">
         <v>22</v>
       </c>
+      <c r="F12">
+        <v>214</v>
+      </c>
       <c r="H12">
         <v>8</v>
       </c>
       <c r="I12">
         <v>6</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -753,6 +813,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:K12" xr:uid="{0AEB7AE6-31DC-4408-BF52-7942321E69DE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K12">
+      <sortCondition ref="A2:A12"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>

--- a/KA_Data/Original_KA_Data/Lockage comparison spreadsheet.xlsx
+++ b/KA_Data/Original_KA_Data/Lockage comparison spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\Original_KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EC6C90-5393-40C3-9E1F-731754048D25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B59CCC-E9EC-4D42-85B0-908262D2145E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11472" yWindow="3744" windowWidth="11916" windowHeight="8964" xr2:uid="{4131F1DD-B8DA-444D-9E84-BD2BFA193964}"/>
+    <workbookView xWindow="-60" yWindow="36" windowWidth="11916" windowHeight="8964" xr2:uid="{4131F1DD-B8DA-444D-9E84-BD2BFA193964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
         <v>2573</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F3">
         <v>1033</v>
@@ -560,7 +560,7 @@
         <v>5942</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="F4">
         <v>1015</v>
@@ -589,7 +589,7 @@
         <v>3389</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="F5">
         <v>553</v>
@@ -618,7 +618,7 @@
         <v>3121</v>
       </c>
       <c r="E6">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="F6">
         <v>480</v>
@@ -647,7 +647,7 @@
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>371</v>
       </c>
       <c r="F7">
         <v>335</v>
@@ -676,7 +676,7 @@
         <v>2227</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="F8">
         <v>305</v>
@@ -705,7 +705,7 @@
         <v>1742</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="F9">
         <v>238</v>
@@ -734,7 +734,7 @@
         <v>1813</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>338</v>
       </c>
       <c r="F10">
         <v>222</v>
@@ -763,7 +763,7 @@
         <v>2519</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>339</v>
       </c>
       <c r="F11">
         <v>406</v>
@@ -792,7 +792,7 @@
         <v>1950</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="F12">
         <v>214</v>
